--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.012120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.012120.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3167,12 +3167,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4473,12 +4473,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4893,12 +4893,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5607,12 +5607,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6699,12 +6699,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7043,12 +7043,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7127,12 +7127,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7929,12 +7929,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8139,12 +8139,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8353,12 +8353,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8395,12 +8395,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8945,12 +8945,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8991,12 +8991,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9159,12 +9159,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9831,12 +9831,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9915,12 +9915,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10675,12 +10675,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11179,12 +11179,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11977,12 +11977,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12355,12 +12355,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12439,12 +12439,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12481,12 +12481,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12523,12 +12523,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12733,12 +12733,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
